--- a/Gunnerkrigg/Volumes.xlsx
+++ b/Gunnerkrigg/Volumes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>Volume 1:</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Fixed</t>
+  </si>
+  <si>
+    <t>Volume 9:</t>
   </si>
 </sst>
 </file>
@@ -392,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -612,6 +615,17 @@
       </c>
       <c r="G9" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>75</v>
+      </c>
+      <c r="D10">
+        <v>2270</v>
       </c>
     </row>
   </sheetData>
